--- a/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>3,26; 12,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>0,0; 19,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>1,81; 16,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0,0; 17,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>2,29; 20,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,27 +759,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>3,86; 11,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0,0; 11,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>1,38; 12,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>0,65; 10,93</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,43%</t>
         </is>
       </c>
     </row>
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>5,91; 13,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>2,15; 12,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>1,28; 6,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>6,07; 13,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>4,16; 14,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +894,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0,0; 5,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>4,74; 11,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>6,25; 12,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>1,28; 7,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,32; 4,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,36; 11,28</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,08%</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>6,26; 22,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>9,29; 32,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>8,21; 26,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>5,93; 46,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>1,26; 12,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>6,61; 21,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>8,77; 21,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>2,65; 21,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>1,42; 8,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>9,83; 23,1</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>6,61; 12,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>2,62; 10,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>1,8; 5,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>7,7; 15,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>7,03; 15,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>0,88; 7,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,81; 5,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>6,06; 12,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,72; 12,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>2,42; 7,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,91; 4,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>7,55; 12,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,41</t>
+          <t>0,0; 18,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,3</t>
+          <t>0,0; 13,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 10,93</t>
+          <t>0,68; 11,54</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,09%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,82</t>
+          <t>6,09; 13,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,68</t>
+          <t>3,84; 10,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,28</t>
+          <t>5,88; 11,04</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,27%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,29; 32,1</t>
+          <t>9,3; 31,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 21,24</t>
+          <t>6,96; 22,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 23,1</t>
+          <t>10,0; 23,47</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,48%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 15,46</t>
+          <t>7,81; 15,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 12,69</t>
+          <t>5,34; 12,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,46</t>
+          <t>7,22; 12,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 12,3</t>
+          <t>3,2; 12,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,68</t>
+          <t>0,0; 22,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 16,68</t>
+          <t>1,84; 15,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,16</t>
+          <t>0,0; 17,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 20,96</t>
+          <t>2,31; 19,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,61</t>
+          <t>0,0; 12,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 11,83</t>
+          <t>4,04; 12,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,72</t>
+          <t>0,0; 13,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,08</t>
+          <t>0,0; 12,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 11,54</t>
+          <t>1,36; 12,28</t>
         </is>
       </c>
     </row>
@@ -864,27 +865,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 13,24</t>
+          <t>5,7; 13,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 12,68</t>
+          <t>2,14; 13,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,32</t>
+          <t>1,32; 5,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 13,89</t>
+          <t>6,31; 13,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 14,48</t>
+          <t>4,22; 14,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +895,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,47</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,62</t>
+          <t>3,73; 10,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,1</t>
+          <t>6,31; 12,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,1</t>
+          <t>1,39; 8,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,83</t>
+          <t>1,2; 4,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,04</t>
+          <t>5,72; 10,88</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 22,64</t>
+          <t>6,4; 23,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1015,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,31</t>
+          <t>0,0; 10,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,3; 31,63</t>
+          <t>9,25; 30,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 26,94</t>
+          <t>8,26; 27,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 46,03</t>
+          <t>0,0; 46,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,49</t>
+          <t>1,26; 13,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 22,5</t>
+          <t>7,66; 24,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 21,5</t>
+          <t>8,93; 21,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 21,64</t>
+          <t>2,57; 21,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,41</t>
+          <t>1,43; 8,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 23,47</t>
+          <t>9,9; 22,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,37</t>
+          <t>6,64; 12,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,34</t>
+          <t>2,68; 9,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,75</t>
+          <t>1,79; 5,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 15,55</t>
+          <t>7,63; 15,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 15,42</t>
+          <t>7,33; 15,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,51</t>
+          <t>0,9; 7,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,23</t>
+          <t>0,87; 5,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,02</t>
+          <t>5,42; 11,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,25</t>
+          <t>7,54; 12,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,88</t>
+          <t>2,34; 7,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,97</t>
+          <t>1,81; 4,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 12,35</t>
+          <t>7,35; 12,29</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene algún otro problema</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7565</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3379</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10577</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3379</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2472</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3557; 13403</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7124</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1021; 8843</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5048</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>867; 7492</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1952</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1800</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3243</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6008; 17897</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6975</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9211</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>734; 6658</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26303</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5790</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6996</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22403</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16266</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36333</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5790</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8906</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38669</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16352; 37524</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1999; 12150</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3029; 13707</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15123; 32613</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5009; 17108</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2014</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5928</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8899; 25151</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25577; 51456</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2191; 12881</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4238; 16838</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27358; 52023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9639</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12690</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10584</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3424</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11782</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20223</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5253</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24472</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4737; 17568</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6504</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6434; 21358</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5288; 17653</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6634</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>929; 9584</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6946; 22072</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12325; 30214</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>832; 7002</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1959; 11859</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15861; 36128</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43508</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7827</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12204</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23625</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28837</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>67134</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10676</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17538</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65613</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31374; 57283</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3828; 13864</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6254; 20520</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25830; 51278</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16145; 34298</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>901; 7739</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1873; 11770</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19176; 41055</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52223; 84638</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5690; 18377</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10224; 27415</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50861; 85123</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>